--- a/Documentation/Testplan_jrpg.xlsx
+++ b/Documentation/Testplan_jrpg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Protask2019\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F44DFA1-28A4-4D5A-80FE-5FB9D1E37F12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B84B9D9-D240-4659-ABBB-1E1A58F36B29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{20B75CD7-9F20-4C43-9241-FB0AFA2EB4F3}"/>
   </bookViews>
@@ -566,7 +566,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
